--- a/PVIAM/final_statements_standardized/Bảng Cân Đối Kế Toán.xlsx
+++ b/PVIAM/final_statements_standardized/Bảng Cân Đối Kế Toán.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio Projects\Financial Statement Data Retriever\PVIAM\final_statements_standardized\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B49CFC-8452-4307-B25C-0E94A3231B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF2FF22-2496-4559-A0C9-EF7783B8501F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="93">
   <si>
     <t>2020</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>Tiền Và Tương Đương Tiền Cuối Năm</t>
+  </si>
+  <si>
+    <t>GROSS REVENUE</t>
+  </si>
+  <si>
+    <t>REVENUE FROM OPERATIONS</t>
   </si>
 </sst>
 </file>
@@ -432,60 +438,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -497,12 +503,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -515,10 +520,6 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -536,11 +537,71 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="112">
+  <dxfs count="29">
     <dxf>
       <font>
-        <color rgb="FF3333FF"/>
+        <color rgb="FF00B0F0"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B0F0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
     </dxf>
     <dxf>
       <font>
@@ -614,494 +675,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF3333FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B0F0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF00B0F0"/>
       </font>
     </dxf>
@@ -1110,6 +683,11 @@
         <color rgb="FF00B0F0"/>
       </font>
       <numFmt numFmtId="7" formatCode="#,##0.00_);\(#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1416,13 +994,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P99"/>
+  <dimension ref="B1:P123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G80" sqref="G80"/>
+      <selection pane="bottomRight" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1451,7 +1029,6 @@
       <c r="G1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
@@ -1466,7 +1043,7 @@
       <c r="B3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="20">
         <f>SUM(D4, ,D7,D9,D14)</f>
         <v>59056289212</v>
@@ -1494,23 +1071,23 @@
         <v>5</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <f>SUM(D5:D6)</f>
         <v>6107653560</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="29">
         <f t="shared" ref="E4:G4" si="0">SUM(E5:E6)</f>
         <v>9136096761</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="29">
         <f t="shared" si="0"/>
         <v>2235872500</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="29">
         <f t="shared" si="0"/>
         <v>30065258117</v>
       </c>
-      <c r="H4" s="30"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
@@ -1521,39 +1098,39 @@
         <v>50</v>
       </c>
       <c r="C5" s="11"/>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <v>6107653560</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="30">
         <v>9136096761</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="30">
         <v>2235872500</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="30">
         <v>1510617611</v>
       </c>
       <c r="I5" s="21"/>
-      <c r="P5" s="30"/>
+      <c r="P5" s="29"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="31">
-        <v>0</v>
-      </c>
-      <c r="E6" s="31">
-        <v>0</v>
-      </c>
-      <c r="F6" s="31">
-        <v>0</v>
-      </c>
-      <c r="G6" s="31">
+      <c r="D6" s="30">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30">
+        <v>0</v>
+      </c>
+      <c r="G6" s="30">
         <v>28554640506</v>
       </c>
-      <c r="H6" s="30"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
       <c r="K6" s="21"/>
@@ -1564,23 +1141,23 @@
         <v>6</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <f>D8</f>
         <v>38200000000</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="29">
         <f t="shared" ref="E7:G7" si="1">E8</f>
         <v>47000000000</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <f t="shared" si="1"/>
         <v>40200000000</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <f t="shared" si="1"/>
         <v>28200000000</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
@@ -1591,19 +1168,19 @@
         <v>51</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <v>38200000000</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="30">
         <v>47000000000</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="30">
         <v>40200000000</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="30">
         <v>28200000000</v>
       </c>
-      <c r="H8" s="30"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
@@ -1614,23 +1191,23 @@
         <v>7</v>
       </c>
       <c r="C9" s="11"/>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <f>SUM(D10:D13)</f>
         <v>14676748385</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="29">
         <f>SUM(E10:E13)</f>
         <v>10928558147</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <f>SUM(F10:F13)</f>
         <v>17004546120</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="29">
         <f>SUM(G10:G13)</f>
         <v>10853845327</v>
       </c>
-      <c r="H9" s="30"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -1641,19 +1218,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="31">
+      <c r="D10" s="30">
         <v>63000000</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="30">
         <v>727900000</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="30">
         <v>324212400</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="30">
         <v>140685960</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
@@ -1664,19 +1241,19 @@
         <v>9</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <v>12247853368</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="30">
         <v>7872374856</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="30">
         <v>12613580457</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>8733659302</v>
       </c>
-      <c r="H11" s="30"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -1687,19 +1264,19 @@
         <v>12</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>2365895017</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <v>2328283291</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="30">
         <v>4101991231</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <v>2029851012</v>
       </c>
-      <c r="H12" s="30"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -1710,16 +1287,16 @@
         <v>13</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="31">
-        <v>0</v>
-      </c>
-      <c r="E13" s="31">
-        <v>0</v>
-      </c>
-      <c r="F13" s="31">
+      <c r="D13" s="30">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0</v>
+      </c>
+      <c r="F13" s="30">
         <v>-35237968</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="30">
         <v>-50350947</v>
       </c>
       <c r="H13" s="14"/>
@@ -1733,26 +1310,26 @@
         <v>14</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="30">
+      <c r="D14" s="29">
         <f>SUM(D15:D18)</f>
         <v>71887267</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <f>SUM(E15:E18)</f>
         <v>39429977</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <f>SUM(F15:F18)</f>
         <v>608719085</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="29">
         <f>SUM(G15:G18)</f>
         <v>927144006</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
       <c r="L14" s="21"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.35">
@@ -1760,19 +1337,19 @@
         <v>35</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="31">
+      <c r="D15" s="30">
         <v>40603350</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="30">
         <v>39429977</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="30">
         <v>466879136</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="30">
         <v>501091506</v>
       </c>
-      <c r="H15" s="30"/>
+      <c r="H15" s="29"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -1783,39 +1360,39 @@
         <v>10</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="31">
-        <v>0</v>
-      </c>
-      <c r="E16" s="31">
-        <v>0</v>
-      </c>
-      <c r="F16" s="31">
+      <c r="D16" s="30">
+        <v>0</v>
+      </c>
+      <c r="E16" s="30">
+        <v>0</v>
+      </c>
+      <c r="F16" s="30">
         <v>81839949</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="30">
         <v>426052500</v>
       </c>
-      <c r="H16" s="30"/>
+      <c r="H16" s="29"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="31">
+      <c r="D17" s="30">
         <v>31283917</v>
       </c>
-      <c r="E17" s="31">
-        <v>0</v>
-      </c>
-      <c r="F17" s="31">
-        <v>0</v>
-      </c>
-      <c r="G17" s="31">
+      <c r="E17" s="30">
+        <v>0</v>
+      </c>
+      <c r="F17" s="30">
+        <v>0</v>
+      </c>
+      <c r="G17" s="30">
         <v>0</v>
       </c>
       <c r="H17" s="21"/>
@@ -1824,24 +1401,24 @@
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31">
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30">
         <v>60000000</v>
       </c>
-      <c r="G18" s="31"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="19" t="s">
         <v>39</v>
       </c>
@@ -1868,72 +1445,72 @@
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="30">
+      <c r="D20" s="29">
         <v>379337417</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <v>32071276</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="29">
         <v>1174900606</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="29">
         <f>SUM(G21,G24)</f>
         <v>1618407632</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="31">
+      <c r="D21" s="30">
         <f>SUM(D22:D23)</f>
         <v>183281194</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="30">
         <f t="shared" ref="E21:G21" si="3">SUM(E22:E23)</f>
         <v>32071276</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="30">
         <f t="shared" si="3"/>
         <v>156193632</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="30">
         <f t="shared" si="3"/>
         <v>808984834</v>
       </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="29"/>
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B22" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="31">
+      <c r="D22" s="30">
         <v>2105696731</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="30">
         <v>2040161363</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="30">
         <v>2306075000</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="30">
         <v>3090675000</v>
       </c>
       <c r="H22" s="21"/>
@@ -1942,178 +1519,177 @@
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="33"/>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="31">
+      <c r="D23" s="30">
         <v>-1922415537</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="30">
         <v>-2008090087</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="30">
         <v>-2149881368</v>
       </c>
-      <c r="G23" s="31">
+      <c r="G23" s="30">
         <v>-2281690166</v>
       </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B24" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="6"/>
-      <c r="D24" s="30">
+      <c r="D24" s="29">
         <f>SUM(D25:D26)</f>
         <v>196056223</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="29">
         <f>SUM(E25:E26)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="29">
         <f t="shared" ref="F24:G24" si="4">SUM(F25:F26)</f>
         <v>156193632</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="29">
         <f t="shared" si="4"/>
         <v>809422798</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B25" s="16" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="13"/>
-      <c r="D25" s="31">
+      <c r="D25" s="30">
         <v>2658520000</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="30">
         <v>2658520</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="30">
         <v>2306075000</v>
       </c>
-      <c r="G25" s="31">
+      <c r="G25" s="30">
         <v>4507483613</v>
       </c>
-      <c r="H25" s="32"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
       <c r="L25" s="21"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B26" s="16" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="31">
+      <c r="D26" s="30">
         <v>-2462463777</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="30">
         <v>-2658520</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="30">
         <v>-2149881368</v>
       </c>
-      <c r="G26" s="31">
+      <c r="G26" s="30">
         <v>-3698060815</v>
       </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
       <c r="K26" s="21"/>
       <c r="L26" s="21"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B27" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="30">
+      <c r="D27" s="29">
         <f>SUM(D28:D30)</f>
         <v>16900000000</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="29">
         <f t="shared" ref="E27:G27" si="5">SUM(E28:E30)</f>
         <v>8500000000</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="29">
         <f t="shared" si="5"/>
         <v>3948146200</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="29">
         <f t="shared" si="5"/>
         <v>22397835320</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
       <c r="K27" s="21"/>
       <c r="L27" s="21"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="36" t="s">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B28" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="31">
+      <c r="C28" s="34"/>
+      <c r="D28" s="30">
         <v>16900000000</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="30">
         <v>8500000000</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="30">
         <v>1948146200</v>
       </c>
-      <c r="G28" s="30">
-        <v>0</v>
-      </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
+      <c r="G28" s="29">
+        <v>0</v>
+      </c>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B29" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30">
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29">
         <v>20449689120</v>
       </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
       <c r="K29" s="21"/>
       <c r="L29" s="21"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B30" s="38" t="s">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="30">
         <v>2000000000</v>
       </c>
-      <c r="G30" s="31">
+      <c r="G30" s="30">
         <v>1948146200</v>
       </c>
       <c r="H30" s="21"/>
@@ -2122,23 +1698,23 @@
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="30">
+      <c r="D31" s="29">
         <v>414075161</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="29">
         <f>SUM(E32:E33)</f>
         <v>272456003</v>
       </c>
-      <c r="F31" s="30">
+      <c r="F31" s="29">
         <f t="shared" ref="F31:G31" si="6">SUM(F32:F33)</f>
         <v>2220995159</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="29">
         <f t="shared" si="6"/>
         <v>780041130</v>
       </c>
@@ -2148,21 +1724,21 @@
       <c r="K31" s="21"/>
       <c r="L31" s="21"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B32" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="31">
+      <c r="D32" s="30">
         <v>364075161</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="30">
         <v>222456003</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="30">
         <v>1794942659</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="30">
         <v>720041130</v>
       </c>
       <c r="H32" s="21"/>
@@ -2176,16 +1752,16 @@
         <v>46</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="31">
+      <c r="D33" s="30">
         <v>50000</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="30">
         <v>50000000</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="30">
         <v>426052500</v>
       </c>
-      <c r="G33" s="31">
+      <c r="G33" s="30">
         <v>60000000</v>
       </c>
       <c r="H33" s="21"/>
@@ -2199,19 +1775,19 @@
         <v>38</v>
       </c>
       <c r="C34" s="17"/>
-      <c r="D34" s="29">
+      <c r="D34" s="28">
         <f>SUM(D3,D19)</f>
         <v>76749701790</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="28">
         <f t="shared" ref="E34:F34" si="7">SUM(E3,E19)</f>
         <v>75908612164</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="28">
         <f t="shared" si="7"/>
         <v>67393179670</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="28">
         <f>SUM(G3,G19)</f>
         <v>94842531532</v>
       </c>
@@ -2248,23 +1824,23 @@
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="26" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="15"/>
-      <c r="D38" s="30">
+      <c r="D38" s="29">
         <f>SUM(D39:D45)</f>
         <v>16581858808</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="29">
         <f t="shared" ref="E38:F38" si="9">SUM(E39:E45)</f>
         <v>14886939810</v>
       </c>
-      <c r="F38" s="30">
+      <c r="F38" s="29">
         <f t="shared" si="9"/>
         <v>10029699808</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="29">
         <f>SUM(G39:G45)</f>
         <v>10924941443</v>
       </c>
@@ -2273,16 +1849,16 @@
       <c r="B39" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="30">
         <v>19743806</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="30">
         <v>419493991</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="30">
         <v>258897501</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G39" s="30">
         <v>489226071</v>
       </c>
     </row>
@@ -2291,16 +1867,16 @@
         <v>24</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="31">
+      <c r="D40" s="30">
         <v>1208238916</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="30">
         <v>1621077603</v>
       </c>
-      <c r="F40" s="31">
+      <c r="F40" s="30">
         <v>1414311040</v>
       </c>
-      <c r="G40" s="31">
+      <c r="G40" s="30">
         <v>2597731056</v>
       </c>
     </row>
@@ -2309,101 +1885,98 @@
         <v>25</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="31">
+      <c r="D41" s="30">
         <v>13007184065</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="30">
         <v>10362522578</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="30">
         <v>5978605886</v>
       </c>
-      <c r="G41" s="31">
+      <c r="G41" s="30">
         <v>3466966862</v>
       </c>
-      <c r="H41" s="33"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B42" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="31">
+      <c r="D42" s="30">
         <v>254642176</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="30">
         <v>332050276</v>
       </c>
-      <c r="F42" s="31">
+      <c r="F42" s="30">
         <v>420850000</v>
       </c>
-      <c r="G42" s="31">
+      <c r="G42" s="30">
         <v>1715271141</v>
       </c>
-      <c r="H42" s="33"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B43" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="31">
+      <c r="D43" s="30">
         <v>306069981</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="30">
         <v>422986062</v>
       </c>
-      <c r="F43" s="31">
+      <c r="F43" s="30">
         <v>375139540</v>
       </c>
-      <c r="G43" s="31">
+      <c r="G43" s="30">
         <v>1565760123</v>
       </c>
-      <c r="H43" s="33"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B44" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="3"/>
-      <c r="D44" s="31">
-        <v>0</v>
-      </c>
-      <c r="E44" s="31">
-        <v>0</v>
-      </c>
-      <c r="F44" s="31">
+      <c r="D44" s="30">
+        <v>0</v>
+      </c>
+      <c r="E44" s="30">
+        <v>0</v>
+      </c>
+      <c r="F44" s="30">
         <v>318500000</v>
       </c>
-      <c r="G44" s="31">
+      <c r="G44" s="30">
         <v>350000000</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>44</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="31">
+      <c r="D45" s="30">
         <v>1785979864</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="30">
         <v>1728809300</v>
       </c>
-      <c r="F45" s="31">
+      <c r="F45" s="30">
         <v>1263395841</v>
       </c>
-      <c r="G45" s="31">
+      <c r="G45" s="30">
         <v>739986190</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B46" s="28"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B47" s="19" t="s">
@@ -2432,16 +2005,16 @@
         <v>29</v>
       </c>
       <c r="C48" s="3"/>
-      <c r="D48" s="31">
+      <c r="D48" s="30">
         <v>50000000000</v>
       </c>
-      <c r="E48" s="31">
+      <c r="E48" s="30">
         <v>50000000000</v>
       </c>
-      <c r="F48" s="31">
+      <c r="F48" s="30">
         <v>50000000000</v>
       </c>
-      <c r="G48" s="31">
+      <c r="G48" s="30">
         <v>79000000000</v>
       </c>
     </row>
@@ -2450,16 +2023,16 @@
         <v>30</v>
       </c>
       <c r="C49" s="3"/>
-      <c r="D49" s="31">
-        <v>0</v>
-      </c>
-      <c r="E49" s="31">
-        <v>0</v>
-      </c>
-      <c r="F49" s="31">
-        <v>0</v>
-      </c>
-      <c r="G49" s="31">
+      <c r="D49" s="30">
+        <v>0</v>
+      </c>
+      <c r="E49" s="30">
+        <v>0</v>
+      </c>
+      <c r="F49" s="30">
+        <v>0</v>
+      </c>
+      <c r="G49" s="30">
         <v>1989600000</v>
       </c>
     </row>
@@ -2468,16 +2041,16 @@
         <v>31</v>
       </c>
       <c r="C50" s="3"/>
-      <c r="D50" s="31">
+      <c r="D50" s="30">
         <v>2461191604</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="30">
         <v>2742882040</v>
       </c>
-      <c r="F50" s="31">
-        <v>0</v>
-      </c>
-      <c r="G50" s="31">
+      <c r="F50" s="30">
+        <v>0</v>
+      </c>
+      <c r="G50" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2486,16 +2059,16 @@
         <v>32</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="31">
+      <c r="D51" s="30">
         <v>2461191604</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="30">
         <v>2742882040</v>
       </c>
-      <c r="F51" s="31">
+      <c r="F51" s="30">
         <v>3149658030</v>
       </c>
-      <c r="G51" s="31">
+      <c r="G51" s="30">
         <v>0</v>
       </c>
     </row>
@@ -2504,46 +2077,45 @@
         <v>33</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="31">
+      <c r="D52" s="30">
         <v>5245459774</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="30">
         <v>5535908274</v>
       </c>
-      <c r="F52" s="31">
+      <c r="F52" s="30">
         <v>4213821832</v>
       </c>
-      <c r="G52" s="31">
+      <c r="G52" s="30">
         <v>2927990089</v>
       </c>
-      <c r="H52" s="33"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B53" s="11"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
     </row>
     <row r="54" spans="2:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B54" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C54" s="17"/>
-      <c r="D54" s="29">
+      <c r="D54" s="28">
         <f>SUM(D37,D47)</f>
         <v>76749701790</v>
       </c>
-      <c r="E54" s="29">
+      <c r="E54" s="28">
         <f t="shared" ref="E54:F54" si="11">SUM(E37,E47)</f>
         <v>75908612164</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="28">
         <f t="shared" si="11"/>
         <v>67393179670</v>
       </c>
-      <c r="G54" s="29">
+      <c r="G54" s="28">
         <f>SUM(G37,G47)</f>
         <v>94842531532</v>
       </c>
@@ -2565,11 +2137,10 @@
       <c r="G59" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H59" s="25"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B60" s="9" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -2580,35 +2151,35 @@
       <c r="B61" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="30">
+      <c r="C61" s="32"/>
+      <c r="D61" s="29">
         <v>38144413277</v>
       </c>
-      <c r="E61" s="30">
+      <c r="E61" s="29">
         <v>35997699472</v>
       </c>
-      <c r="F61" s="30">
+      <c r="F61" s="29">
         <v>49622139061</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G61" s="29">
         <v>54005048948</v>
       </c>
-      <c r="H61" s="35"/>
+      <c r="H61" s="32"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B62" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D62" s="31">
+      <c r="D62" s="30">
         <v>-21418870453</v>
       </c>
-      <c r="E62" s="31">
+      <c r="E62" s="30">
         <v>-17417679758</v>
       </c>
-      <c r="F62" s="31">
+      <c r="F62" s="30">
         <v>-28393723250</v>
       </c>
-      <c r="G62" s="31">
+      <c r="G62" s="30">
         <v>-30584706537</v>
       </c>
     </row>
@@ -2616,18 +2187,18 @@
       <c r="B63" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="35"/>
-      <c r="D63" s="30">
+      <c r="C63" s="32"/>
+      <c r="D63" s="29">
         <f>SUM(D61:D62)</f>
         <v>16725542824</v>
       </c>
-      <c r="E63" s="30">
+      <c r="E63" s="29">
         <v>18580019714</v>
       </c>
-      <c r="F63" s="30">
+      <c r="F63" s="29">
         <v>21228415811</v>
       </c>
-      <c r="G63" s="30">
+      <c r="G63" s="29">
         <v>23420342411</v>
       </c>
     </row>
@@ -2635,16 +2206,16 @@
       <c r="B64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="31">
+      <c r="D64" s="30">
         <v>4304359772</v>
       </c>
-      <c r="E64" s="31">
+      <c r="E64" s="30">
         <v>3715582729</v>
       </c>
-      <c r="F64" s="31">
+      <c r="F64" s="30">
         <v>5051119961</v>
       </c>
-      <c r="G64" s="31">
+      <c r="G64" s="30">
         <v>3397883768</v>
       </c>
     </row>
@@ -2652,16 +2223,16 @@
       <c r="B65" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D65" s="31">
+      <c r="D65" s="30">
         <v>-13913885</v>
       </c>
-      <c r="E65" s="31">
+      <c r="E65" s="30">
         <v>-14059803</v>
       </c>
-      <c r="F65" s="31">
+      <c r="F65" s="30">
         <v>-15790279</v>
       </c>
-      <c r="G65" s="31">
+      <c r="G65" s="30">
         <v>-23695734</v>
       </c>
     </row>
@@ -2669,16 +2240,16 @@
       <c r="B66" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D66" s="31">
+      <c r="D66" s="30">
         <v>-14464977253</v>
       </c>
-      <c r="E66" s="31">
+      <c r="E66" s="30">
         <v>-11985035737</v>
       </c>
-      <c r="F66" s="31">
+      <c r="F66" s="30">
         <v>-16716059975</v>
       </c>
-      <c r="G66" s="31">
+      <c r="G66" s="30">
         <v>-17682194387</v>
       </c>
     </row>
@@ -2686,20 +2257,20 @@
       <c r="B67" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C67" s="35"/>
-      <c r="D67" s="30">
+      <c r="C67" s="32"/>
+      <c r="D67" s="29">
         <f>SUM(D63:D66)</f>
         <v>6551011458</v>
       </c>
-      <c r="E67" s="30">
+      <c r="E67" s="29">
         <f>SUM(E63:E66)</f>
         <v>10296506903</v>
       </c>
-      <c r="F67" s="30">
+      <c r="F67" s="29">
         <f t="shared" ref="F67:G67" si="12">SUM(F63:F66)</f>
         <v>9547685518</v>
       </c>
-      <c r="G67" s="30">
+      <c r="G67" s="29">
         <f t="shared" si="12"/>
         <v>9112336058</v>
       </c>
@@ -2708,16 +2279,16 @@
       <c r="B68" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D68" s="31">
-        <v>0</v>
-      </c>
-      <c r="E68" s="31">
+      <c r="D68" s="30">
+        <v>0</v>
+      </c>
+      <c r="E68" s="30">
         <v>-60000000</v>
       </c>
-      <c r="F68" s="31">
-        <v>0</v>
-      </c>
-      <c r="G68" s="31">
+      <c r="F68" s="30">
+        <v>0</v>
+      </c>
+      <c r="G68" s="30">
         <v>-126342453</v>
       </c>
     </row>
@@ -2725,65 +2296,65 @@
       <c r="B69" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="31">
+      <c r="C69" s="32"/>
+      <c r="D69" s="30">
         <f t="shared" ref="D69:F69" si="13">-D68</f>
         <v>0</v>
       </c>
-      <c r="E69" s="31">
+      <c r="E69" s="30">
         <f>E68</f>
         <v>-60000000</v>
       </c>
-      <c r="F69" s="31">
+      <c r="F69" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G69" s="31">
+      <c r="G69" s="30">
         <f>G68</f>
         <v>-126342453</v>
       </c>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C70" s="35"/>
-      <c r="D70" s="30">
+      <c r="C70" s="32"/>
+      <c r="D70" s="29">
         <f t="shared" ref="D70:F70" si="14">SUM(D67,D69)</f>
         <v>6551011458</v>
       </c>
-      <c r="E70" s="30">
+      <c r="E70" s="29">
         <f t="shared" si="14"/>
         <v>10236506903</v>
       </c>
-      <c r="F70" s="30">
+      <c r="F70" s="29">
         <f t="shared" si="14"/>
         <v>9547685518</v>
       </c>
-      <c r="G70" s="30">
+      <c r="G70" s="29">
         <f>SUM(G67,G69)</f>
         <v>8985993605</v>
       </c>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D71" s="31">
+      <c r="D71" s="30">
         <v>-917202729</v>
       </c>
-      <c r="E71" s="31">
+      <c r="E71" s="30">
         <v>-2100987095</v>
       </c>
-      <c r="F71" s="31">
+      <c r="F71" s="30">
         <v>-2336186816</v>
       </c>
-      <c r="G71" s="31">
+      <c r="G71" s="30">
         <v>-2633023429</v>
       </c>
     </row>
@@ -2791,20 +2362,20 @@
       <c r="B72" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C72" s="35"/>
-      <c r="D72" s="30">
+      <c r="C72" s="32"/>
+      <c r="D72" s="29">
         <f>SUM(D70:D71)</f>
         <v>5633808729</v>
       </c>
-      <c r="E72" s="30">
+      <c r="E72" s="29">
         <f t="shared" ref="E72:G72" si="15">SUM(E70:E71)</f>
         <v>8135519808</v>
       </c>
-      <c r="F72" s="30">
+      <c r="F72" s="29">
         <f t="shared" si="15"/>
         <v>7211498702</v>
       </c>
-      <c r="G72" s="30">
+      <c r="G72" s="29">
         <f t="shared" si="15"/>
         <v>6352970176</v>
       </c>
@@ -2813,865 +2384,720 @@
       <c r="B73" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C73" s="35"/>
-      <c r="D73" s="30">
+      <c r="C73" s="32"/>
+      <c r="D73" s="29">
         <v>1014</v>
       </c>
-      <c r="E73" s="30">
+      <c r="E73" s="29">
         <v>1562</v>
       </c>
-      <c r="F73" s="30">
+      <c r="F73" s="29">
         <v>1259</v>
       </c>
-      <c r="G73" s="30">
+      <c r="G73" s="29">
         <v>1056</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="I75">
+      <c r="B75" s="12"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="12"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="12"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+    </row>
+    <row r="78" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B79" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B80" s="12"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B81" s="13"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B82" s="12"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B83" s="13"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B84" s="13"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B85" s="13"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B86" s="12"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B87" s="13"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B88" s="13"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B89" s="12"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B90" s="13"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B91" s="12"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B92" s="12"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B93" s="12"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B94" s="12"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B95" s="12"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B96" s="12"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B97" s="12"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="I99">
         <f>-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D76" s="39"/>
-      <c r="E76" s="39"/>
-      <c r="F76" s="39"/>
-      <c r="G76" s="39"/>
-    </row>
-    <row r="78" spans="2:10" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="24" t="s">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+    </row>
+    <row r="102" spans="2:9" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="24" t="s">
+      <c r="C102" s="24"/>
+      <c r="D102" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F78" s="24" t="s">
+      <c r="F102" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G78" s="24" t="s">
+      <c r="G102" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H78" s="25"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="9" t="s">
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B103" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="6" t="s">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B104" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D80" s="31">
+      <c r="D104" s="30">
         <v>38162130698</v>
       </c>
-      <c r="E80" s="31">
+      <c r="E104" s="30">
         <v>40373177984</v>
       </c>
-      <c r="F80" s="31">
+      <c r="F104" s="30">
         <v>45136311211</v>
       </c>
-      <c r="G80" s="31">
+      <c r="G104" s="30">
         <v>58601220103</v>
       </c>
-      <c r="H80" s="31"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B81" s="6" t="s">
+      <c r="H104" s="30"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B105" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D81" s="31">
+      <c r="D105" s="30">
         <v>-5837560860</v>
       </c>
-      <c r="E81" s="31">
+      <c r="E105" s="30">
         <v>-5584149434</v>
       </c>
-      <c r="F81" s="31">
+      <c r="F105" s="30">
         <v>-11706619445</v>
       </c>
-      <c r="G81" s="31">
+      <c r="G105" s="30">
         <v>-12276784829</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B82" s="6" t="s">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B106" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D82" s="31">
+      <c r="D106" s="30">
         <v>-33731015162</v>
       </c>
-      <c r="E82" s="31">
+      <c r="E106" s="30">
         <v>-26001630874</v>
       </c>
-      <c r="F82" s="31">
+      <c r="F106" s="30">
         <v>-32447178312</v>
       </c>
-      <c r="G82" s="31">
+      <c r="G106" s="30">
         <v>-33809422838</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B83" s="6" t="s">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B107" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D83" s="31">
+      <c r="D107" s="30">
         <v>-1435161808</v>
       </c>
-      <c r="E83" s="31">
+      <c r="E107" s="30">
         <v>-973825247</v>
       </c>
-      <c r="F83" s="31">
+      <c r="F107" s="30">
         <v>-2614338478</v>
       </c>
-      <c r="G83" s="31">
+      <c r="G107" s="30">
         <v>-2233709599</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B84" s="6" t="s">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B108" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D84" s="31">
+      <c r="D108" s="30">
         <v>23500000</v>
       </c>
-      <c r="E84" s="31">
+      <c r="E108" s="30">
         <v>22500000</v>
       </c>
-      <c r="F84" s="31">
+      <c r="F108" s="30">
         <v>27500000</v>
       </c>
-      <c r="G84" s="31">
+      <c r="G108" s="30">
         <v>140449684</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B85" s="6" t="s">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B109" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="31">
+      <c r="D109" s="30">
         <v>-516562915</v>
       </c>
-      <c r="E85" s="31">
+      <c r="E109" s="30">
         <v>-540753797</v>
       </c>
-      <c r="F85" s="31">
+      <c r="F109" s="30">
         <v>-489340009</v>
       </c>
-      <c r="G85" s="31">
+      <c r="G109" s="30">
         <v>-916328843</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B86" s="9" t="s">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B110" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D86" s="30">
-        <f>SUM(D80:D85)</f>
+      <c r="D110" s="29">
+        <f>SUM(D104:D109)</f>
         <v>-3334670047</v>
       </c>
-      <c r="E86" s="30">
-        <f t="shared" ref="E86:G86" si="16">SUM(E80:E85)</f>
+      <c r="E110" s="29">
+        <f t="shared" ref="E110:G110" si="16">SUM(E104:E109)</f>
         <v>7295318632</v>
       </c>
-      <c r="F86" s="30">
+      <c r="F110" s="29">
         <f t="shared" si="16"/>
         <v>-2093665033</v>
       </c>
-      <c r="G86" s="30">
+      <c r="G110" s="29">
         <f t="shared" si="16"/>
         <v>9505423678</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B87" s="6" t="s">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B111" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D87" s="31">
-        <v>0</v>
-      </c>
-      <c r="E87" s="31">
+      <c r="D111" s="30">
+        <v>0</v>
+      </c>
+      <c r="E111" s="30">
         <v>-42363636</v>
       </c>
-      <c r="F87" s="31">
+      <c r="F111" s="30">
         <v>-681550000</v>
       </c>
-      <c r="G87" s="31">
+      <c r="G111" s="30">
         <v>-1099600000</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B88" s="6" t="s">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B112" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D88" s="31">
+      <c r="D112" s="30">
         <v>-74900000000</v>
       </c>
-      <c r="E88" s="31">
+      <c r="E112" s="30">
         <v>-38400000000</v>
       </c>
-      <c r="F88" s="31">
+      <c r="F112" s="30">
         <v>-11000000000</v>
       </c>
-      <c r="G88" s="31">
+      <c r="G112" s="30">
         <v>-44649689120</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B89" s="6" t="s">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B113" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D89" s="31">
+      <c r="D113" s="30">
         <v>77000000000</v>
       </c>
-      <c r="E89" s="31">
+      <c r="E113" s="30">
         <v>38000000000</v>
       </c>
-      <c r="F89" s="31">
+      <c r="F113" s="30">
         <v>18100000000</v>
       </c>
-      <c r="G89" s="31">
+      <c r="G113" s="30">
         <v>38200000000</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B90" s="6" t="s">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B114" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D90" s="31">
-        <v>0</v>
-      </c>
-      <c r="E90" s="31">
-        <v>0</v>
-      </c>
-      <c r="F90" s="31">
+      <c r="D114" s="30">
+        <v>0</v>
+      </c>
+      <c r="E114" s="30">
+        <v>0</v>
+      </c>
+      <c r="F114" s="30">
         <v>-1948146200</v>
       </c>
-      <c r="G90" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B91" s="6" t="s">
+      <c r="G114" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B115" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D91" s="31">
+      <c r="D115" s="30">
         <v>5191120321</v>
       </c>
-      <c r="E91" s="31">
+      <c r="E115" s="30">
         <v>3175488205</v>
       </c>
-      <c r="F91" s="31">
+      <c r="F115" s="30">
         <v>2000494760</v>
       </c>
-      <c r="G91" s="31">
+      <c r="G115" s="30">
         <v>5383651064</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B92" s="9" t="s">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B116" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D92" s="30">
-        <f>SUM(D87:D91)</f>
+      <c r="D116" s="29">
+        <f>SUM(D111:D115)</f>
         <v>7291120321</v>
       </c>
-      <c r="E92" s="30">
-        <f t="shared" ref="E92:G92" si="17">SUM(E87:E91)</f>
+      <c r="E116" s="29">
+        <f t="shared" ref="E116:G116" si="17">SUM(E111:E115)</f>
         <v>2733124569</v>
       </c>
-      <c r="F92" s="30">
+      <c r="F116" s="29">
         <f t="shared" si="17"/>
         <v>6470798560</v>
       </c>
-      <c r="G92" s="30">
+      <c r="G116" s="29">
         <f t="shared" si="17"/>
         <v>-2165638056</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B93" s="6" t="s">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B117" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D93" s="31">
-        <v>0</v>
-      </c>
-      <c r="E93" s="31">
-        <v>0</v>
-      </c>
-      <c r="F93" s="31">
-        <v>0</v>
-      </c>
-      <c r="G93" s="31">
+      <c r="D117" s="30">
+        <v>0</v>
+      </c>
+      <c r="E117" s="30">
+        <v>0</v>
+      </c>
+      <c r="F117" s="30">
+        <v>0</v>
+      </c>
+      <c r="G117" s="30">
         <v>25989600000</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B94" s="6" t="s">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B118" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D94" s="31">
+      <c r="D118" s="30">
         <v>-3000000000</v>
       </c>
-      <c r="E94" s="31">
+      <c r="E118" s="30">
         <v>-7000000000</v>
       </c>
-      <c r="F94" s="31">
+      <c r="F118" s="30">
         <v>-9000000000</v>
       </c>
-      <c r="G94" s="31">
+      <c r="G118" s="30">
         <v>-5500000000</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B95" s="6" t="s">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B119" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D95" s="31">
+      <c r="D119" s="30">
         <v>-3000000000</v>
       </c>
-      <c r="E95" s="31">
+      <c r="E119" s="30">
         <v>-7000000000</v>
       </c>
-      <c r="F95" s="31">
+      <c r="F119" s="30">
         <v>-9000000000</v>
       </c>
-      <c r="G95" s="31">
+      <c r="G119" s="30">
         <v>20489600000</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B96" s="6" t="s">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B120" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D96" s="31">
+      <c r="D120" s="30">
         <v>956450274</v>
       </c>
-      <c r="E96" s="31">
+      <c r="E120" s="30">
         <v>3028443201</v>
       </c>
-      <c r="F96" s="31">
+      <c r="F120" s="30">
         <v>-4622866473</v>
       </c>
-      <c r="G96" s="31">
+      <c r="G120" s="30">
         <v>27829385617</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B97" s="6" t="s">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B121" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D97" s="31">
+      <c r="D121" s="30">
         <v>5151203286</v>
       </c>
-      <c r="E97" s="31">
+      <c r="E121" s="30">
         <v>6107653560</v>
       </c>
-      <c r="F97" s="31">
+      <c r="F121" s="30">
         <v>6858738973</v>
       </c>
-      <c r="G97" s="31">
+      <c r="G121" s="30">
         <v>2235872500</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B98" s="6" t="s">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B122" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D98" s="30">
-        <f>SUM(D96:D97)</f>
+      <c r="D122" s="29">
+        <f>SUM(D120:D121)</f>
         <v>6107653560</v>
       </c>
-      <c r="E98" s="30">
-        <f t="shared" ref="E98:G98" si="18">SUM(E96:E97)</f>
+      <c r="E122" s="29">
+        <f t="shared" ref="E122:G122" si="18">SUM(E120:E121)</f>
         <v>9136096761</v>
       </c>
-      <c r="F98" s="30">
+      <c r="F122" s="29">
         <f t="shared" si="18"/>
         <v>2235872500</v>
       </c>
-      <c r="G98" s="30">
+      <c r="G122" s="29">
         <f t="shared" si="18"/>
         <v>30065258117</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B99" s="32"/>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B123" s="21"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="111" priority="461" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="459" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="461" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18:E18 G18">
-    <cfRule type="cellIs" dxfId="110" priority="460" operator="greaterThan">
+  <conditionalFormatting sqref="D18:E18">
+    <cfRule type="cellIs" dxfId="26" priority="460" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="109" priority="459" operator="greaterThan">
+  <conditionalFormatting sqref="D4:G17">
+    <cfRule type="cellIs" dxfId="25" priority="59" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="108" priority="458" operator="lessThan">
+  <conditionalFormatting sqref="D20:G29 F30:G30 D31:G33 H104">
+    <cfRule type="cellIs" dxfId="23" priority="99" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="100" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:G46">
+    <cfRule type="cellIs" dxfId="21" priority="75" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="76" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48:G53">
+    <cfRule type="cellIs" dxfId="19" priority="77" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="78" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61:G77 D80:G99">
+    <cfRule type="cellIs" dxfId="17" priority="33" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="34" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104:G122">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="13" priority="73" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="74" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="11" priority="386" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="387" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H12">
+    <cfRule type="cellIs" dxfId="9" priority="67" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="68" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14:H16">
+    <cfRule type="cellIs" dxfId="7" priority="327" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="328" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:I21">
+    <cfRule type="cellIs" dxfId="5" priority="303" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="304" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:J23">
+    <cfRule type="cellIs" dxfId="3" priority="448" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:J26">
+    <cfRule type="cellIs" dxfId="2" priority="444" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5 D18:E18 G18">
+    <cfRule type="cellIs" dxfId="1" priority="456" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5 H13:J13 E18 G18">
-    <cfRule type="cellIs" dxfId="107" priority="457" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5 E18 G18">
-    <cfRule type="cellIs" dxfId="106" priority="456" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:J23">
-    <cfRule type="cellIs" dxfId="105" priority="448" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26:J26">
-    <cfRule type="cellIs" dxfId="104" priority="444" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="103" priority="387" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="102" priority="386" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H9">
-    <cfRule type="cellIs" dxfId="101" priority="383" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H9">
-    <cfRule type="cellIs" dxfId="100" priority="382" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="99" priority="379" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="98" priority="378" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="97" priority="373" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="96" priority="372" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="95" priority="369" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="94" priority="368" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="93" priority="349" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="92" priority="348" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="91" priority="334" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="90" priority="333" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="89" priority="328" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="88" priority="327" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="87" priority="320" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="86" priority="319" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="85" priority="304" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="84" priority="303" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:G17 D6:G6 D4:G4 D20:G29 D31:G33 F30:G30 D61:G61 H80">
-    <cfRule type="cellIs" dxfId="83" priority="99" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="100" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39:G40">
-    <cfRule type="cellIs" dxfId="81" priority="93" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="94" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D41:G42">
-    <cfRule type="cellIs" dxfId="79" priority="91" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="92" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:G44">
-    <cfRule type="cellIs" dxfId="77" priority="89" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="90" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45:G46">
-    <cfRule type="cellIs" dxfId="75" priority="87" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="88" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D48:G49">
-    <cfRule type="cellIs" dxfId="73" priority="85" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="86" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50:G50">
-    <cfRule type="cellIs" dxfId="71" priority="83" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="84" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D51:G51">
-    <cfRule type="cellIs" dxfId="69" priority="81" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="82" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:G53">
-    <cfRule type="cellIs" dxfId="67" priority="77" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="78" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38:G38">
-    <cfRule type="cellIs" dxfId="65" priority="75" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="76" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="63" priority="73" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="74" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="61" priority="68" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="60" priority="67" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="59" priority="65" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="66" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:G7">
-    <cfRule type="cellIs" dxfId="57" priority="63" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="64" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:F5">
-    <cfRule type="cellIs" dxfId="55" priority="61" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="62" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:G8">
-    <cfRule type="cellIs" dxfId="53" priority="59" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="60" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:G62">
-    <cfRule type="cellIs" dxfId="51" priority="55" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="56" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D63:G63">
-    <cfRule type="cellIs" dxfId="49" priority="53" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="54" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64:G64">
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="52" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65:G66">
-    <cfRule type="cellIs" dxfId="45" priority="49" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="50" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67:G67">
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="48" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68:G68">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="46" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:G69">
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="44" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70:G71">
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="42" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72:G72">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="40" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D73:G73">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="38" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74:G74">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="36" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75:G75">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D83:G84">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D80:G80">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="24" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D81:G82">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D88:G89">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D90:G90">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91:G92">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D93:G93">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D94:G95">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D96:G96">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D97:G98">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85:G85">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86:G87">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="457" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
